--- a/month_sum(in).xlsx
+++ b/month_sum(in).xlsx
@@ -1705,13 +1705,13 @@
         <v>2404</v>
       </c>
       <c r="C67" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D67" t="n">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="E67" t="n">
-        <v>34106</v>
+        <v>34107</v>
       </c>
     </row>
     <row r="68">
@@ -1730,7 +1730,7 @@
         <v>1887</v>
       </c>
       <c r="E68" t="n">
-        <v>35993</v>
+        <v>35994</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>3289</v>
       </c>
       <c r="C69" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D69" t="n">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="E69" t="n">
-        <v>38659</v>
+        <v>38661</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>2177</v>
       </c>
       <c r="E70" t="n">
-        <v>40836</v>
+        <v>40838</v>
       </c>
     </row>
     <row r="71">
@@ -1787,7 +1787,7 @@
         <v>1482</v>
       </c>
       <c r="E71" t="n">
-        <v>42318</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="72">
@@ -1806,7 +1806,7 @@
         <v>1268</v>
       </c>
       <c r="E72" t="n">
-        <v>43586</v>
+        <v>43588</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>1356</v>
       </c>
       <c r="C73" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D73" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E73" t="n">
-        <v>44615</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="74">
@@ -1838,13 +1838,13 @@
         <v>1341</v>
       </c>
       <c r="C74" t="n">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="D74" t="n">
-        <v>597</v>
+        <v>698</v>
       </c>
       <c r="E74" t="n">
-        <v>45212</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="75">
@@ -1857,13 +1857,13 @@
         <v>1500</v>
       </c>
       <c r="C75" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D75" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E75" t="n">
-        <v>46282</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="C76" t="n">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="D76" t="n">
-        <v>2370</v>
+        <v>2350</v>
       </c>
       <c r="E76" t="n">
-        <v>48652</v>
+        <v>48737</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>839</v>
+        <v>1747</v>
       </c>
       <c r="C77" t="n">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="D77" t="n">
-        <v>613</v>
+        <v>1332</v>
       </c>
       <c r="E77" t="n">
-        <v>49265</v>
+        <v>50069</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>69385</v>
+        <v>70291</v>
       </c>
       <c r="C78" t="n">
-        <v>20232</v>
+        <v>20334</v>
       </c>
       <c r="D78" t="n">
-        <v>49153</v>
+        <v>49957</v>
       </c>
       <c r="E78" t="n">
-        <v>98418</v>
+        <v>100026</v>
       </c>
     </row>
   </sheetData>

--- a/month_sum(in).xlsx
+++ b/month_sum(in).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4월자료" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>신규장착대수</t>
+          <t>장착대수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -463,1464 +463,1730 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201612</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1033</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1033</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2351</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201701</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>703</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>3054</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201702</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>811</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>3865</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201703</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>4257</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201704</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>884</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>5141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>649</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>649</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>5790</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>544</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>544</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>6334</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
-        <v>6579</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E11" t="n">
-        <v>6643</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="E12" t="n">
-        <v>6644</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="E13" t="n">
-        <v>7444</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="E14" t="n">
-        <v>7457</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>379</v>
+        <v>232</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="E15" t="n">
-        <v>7833</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="E16" t="n">
-        <v>7844</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="E17" t="n">
-        <v>7894</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="E18" t="n">
-        <v>7901</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="E19" t="n">
-        <v>7925</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>311</v>
+        <v>527</v>
       </c>
       <c r="E20" t="n">
-        <v>8236</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E21" t="n">
-        <v>8443</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252</v>
+        <v>731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>252</v>
+        <v>731</v>
       </c>
       <c r="E22" t="n">
-        <v>8695</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D23" t="n">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E23" t="n">
-        <v>8971</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="E24" t="n">
-        <v>9171</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E25" t="n">
-        <v>9369</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C26" t="n">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="D26" t="n">
-        <v>192</v>
+        <v>-150</v>
       </c>
       <c r="E26" t="n">
-        <v>9561</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="E27" t="n">
-        <v>9717</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="C28" t="n">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>-103</v>
+        <v>257</v>
       </c>
       <c r="E28" t="n">
-        <v>9614</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C29" t="n">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E29" t="n">
-        <v>9679</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>379</v>
+        <v>139</v>
       </c>
       <c r="C30" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>9936</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="C31" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" t="n">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="E31" t="n">
-        <v>10124</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="E32" t="n">
-        <v>10150</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="C33" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D33" t="n">
-        <v>-107</v>
+        <v>293</v>
       </c>
       <c r="E33" t="n">
-        <v>10043</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="C34" t="n">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>-135</v>
+        <v>264</v>
       </c>
       <c r="E34" t="n">
-        <v>9908</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="C35" t="n">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>-192</v>
+        <v>87</v>
       </c>
       <c r="E35" t="n">
-        <v>9716</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="C36" t="n">
-        <v>549</v>
+        <v>203</v>
       </c>
       <c r="D36" t="n">
-        <v>-542</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>9174</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62</v>
+        <v>1171</v>
       </c>
       <c r="C37" t="n">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="D37" t="n">
-        <v>-217</v>
+        <v>960</v>
       </c>
       <c r="E37" t="n">
-        <v>8957</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94</v>
+        <v>1939</v>
       </c>
       <c r="C38" t="n">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="D38" t="n">
-        <v>-163</v>
+        <v>1529</v>
       </c>
       <c r="E38" t="n">
-        <v>8794</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="C39" t="n">
-        <v>1062</v>
+        <v>91</v>
       </c>
       <c r="D39" t="n">
-        <v>-1001</v>
+        <v>161</v>
       </c>
       <c r="E39" t="n">
-        <v>7793</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="C40" t="n">
-        <v>3811</v>
+        <v>154</v>
       </c>
       <c r="D40" t="n">
-        <v>-3730</v>
+        <v>224</v>
       </c>
       <c r="E40" t="n">
-        <v>4063</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C41" t="n">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>-189</v>
+        <v>157</v>
       </c>
       <c r="E41" t="n">
-        <v>3874</v>
+        <v>10517</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="E42" t="n">
-        <v>4018</v>
+        <v>10774</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169</v>
+        <v>539</v>
       </c>
       <c r="C43" t="n">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="D43" t="n">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="E43" t="n">
-        <v>4098</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231</v>
+        <v>540</v>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>371</v>
       </c>
       <c r="D44" t="n">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E44" t="n">
-        <v>4241</v>
+        <v>11147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>360</v>
+        <v>619</v>
       </c>
       <c r="C45" t="n">
-        <v>124</v>
+        <v>637</v>
       </c>
       <c r="D45" t="n">
-        <v>236</v>
+        <v>-18</v>
       </c>
       <c r="E45" t="n">
-        <v>4477</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C46" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="D46" t="n">
-        <v>142</v>
+        <v>-48</v>
       </c>
       <c r="E46" t="n">
-        <v>4619</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1242</v>
+        <v>161</v>
       </c>
       <c r="C47" t="n">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D47" t="n">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>5739</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>584</v>
+        <v>208</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>532</v>
+        <v>71</v>
       </c>
       <c r="E48" t="n">
-        <v>6271</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="C49" t="n">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D49" t="n">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="E49" t="n">
-        <v>6560</v>
+        <v>11216</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>747</v>
+        <v>396</v>
       </c>
       <c r="C50" t="n">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="D50" t="n">
-        <v>694</v>
+        <v>236</v>
       </c>
       <c r="E50" t="n">
-        <v>7254</v>
+        <v>11452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1713</v>
+        <v>318</v>
       </c>
       <c r="C51" t="n">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="D51" t="n">
-        <v>1588</v>
+        <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>8842</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1366</v>
+        <v>361</v>
       </c>
       <c r="C52" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D52" t="n">
-        <v>1234</v>
+        <v>238</v>
       </c>
       <c r="E52" t="n">
-        <v>10076</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>882</v>
+        <v>471</v>
       </c>
       <c r="C53" t="n">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="D53" t="n">
-        <v>643</v>
+        <v>352</v>
       </c>
       <c r="E53" t="n">
-        <v>10719</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1244</v>
+        <v>444</v>
       </c>
       <c r="C54" t="n">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="D54" t="n">
-        <v>999</v>
+        <v>260</v>
       </c>
       <c r="E54" t="n">
-        <v>11718</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1011</v>
+        <v>674</v>
       </c>
       <c r="C55" t="n">
-        <v>1225</v>
+        <v>248</v>
       </c>
       <c r="D55" t="n">
-        <v>-214</v>
+        <v>426</v>
       </c>
       <c r="E55" t="n">
-        <v>11504</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2070</v>
+        <v>334</v>
       </c>
       <c r="C56" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D56" t="n">
-        <v>1940</v>
+        <v>156</v>
       </c>
       <c r="E56" t="n">
-        <v>13444</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2039</v>
+        <v>2519</v>
       </c>
       <c r="C57" t="n">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="D57" t="n">
-        <v>1787</v>
+        <v>2212</v>
       </c>
       <c r="E57" t="n">
-        <v>15231</v>
+        <v>15155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2587</v>
+        <v>625</v>
       </c>
       <c r="C58" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D58" t="n">
-        <v>2358</v>
+        <v>406</v>
       </c>
       <c r="E58" t="n">
-        <v>17589</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2672</v>
+        <v>360</v>
       </c>
       <c r="C59" t="n">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="D59" t="n">
-        <v>2358</v>
+        <v>130</v>
       </c>
       <c r="E59" t="n">
-        <v>19947</v>
+        <v>15691</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1997</v>
+        <v>479</v>
       </c>
       <c r="C60" t="n">
+        <v>125</v>
+      </c>
+      <c r="D60" t="n">
         <v>354</v>
       </c>
-      <c r="D60" t="n">
-        <v>1643</v>
-      </c>
       <c r="E60" t="n">
-        <v>21590</v>
+        <v>16045</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2509</v>
+        <v>864</v>
       </c>
       <c r="C61" t="n">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D61" t="n">
-        <v>2354</v>
+        <v>641</v>
       </c>
       <c r="E61" t="n">
-        <v>23944</v>
+        <v>16686</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3154</v>
+        <v>541</v>
       </c>
       <c r="C62" t="n">
-        <v>775</v>
+        <v>279</v>
       </c>
       <c r="D62" t="n">
-        <v>2379</v>
+        <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>26323</v>
+        <v>16948</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2359</v>
+        <v>613</v>
       </c>
       <c r="C63" t="n">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="D63" t="n">
-        <v>1750</v>
+        <v>115</v>
       </c>
       <c r="E63" t="n">
-        <v>28073</v>
+        <v>17063</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1742</v>
+        <v>840</v>
       </c>
       <c r="C64" t="n">
-        <v>269</v>
+        <v>401</v>
       </c>
       <c r="D64" t="n">
-        <v>1473</v>
+        <v>439</v>
       </c>
       <c r="E64" t="n">
-        <v>29546</v>
+        <v>17502</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1847</v>
+        <v>593</v>
       </c>
       <c r="C65" t="n">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="D65" t="n">
-        <v>1639</v>
+        <v>179</v>
       </c>
       <c r="E65" t="n">
-        <v>31185</v>
+        <v>17681</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2007</v>
+        <v>1072</v>
       </c>
       <c r="C66" t="n">
-        <v>1224</v>
+        <v>262</v>
       </c>
       <c r="D66" t="n">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="E66" t="n">
-        <v>31968</v>
+        <v>18491</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2404</v>
+        <v>698</v>
       </c>
       <c r="C67" t="n">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="D67" t="n">
-        <v>2139</v>
+        <v>371</v>
       </c>
       <c r="E67" t="n">
-        <v>34107</v>
+        <v>18862</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2162</v>
+        <v>656</v>
       </c>
       <c r="C68" t="n">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="D68" t="n">
-        <v>1887</v>
+        <v>316</v>
       </c>
       <c r="E68" t="n">
-        <v>35994</v>
+        <v>19178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3289</v>
+        <v>414</v>
       </c>
       <c r="C69" t="n">
-        <v>622</v>
+        <v>340</v>
       </c>
       <c r="D69" t="n">
-        <v>2667</v>
+        <v>74</v>
       </c>
       <c r="E69" t="n">
-        <v>38661</v>
+        <v>19252</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2488</v>
+        <v>671</v>
       </c>
       <c r="C70" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D70" t="n">
-        <v>2177</v>
+        <v>363</v>
       </c>
       <c r="E70" t="n">
-        <v>40838</v>
+        <v>19615</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1988</v>
+        <v>937</v>
       </c>
       <c r="C71" t="n">
-        <v>506</v>
+        <v>346</v>
       </c>
       <c r="D71" t="n">
-        <v>1482</v>
+        <v>591</v>
       </c>
       <c r="E71" t="n">
-        <v>42320</v>
+        <v>20206</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1520</v>
+        <v>620</v>
       </c>
       <c r="C72" t="n">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="D72" t="n">
-        <v>1268</v>
+        <v>286</v>
       </c>
       <c r="E72" t="n">
-        <v>43588</v>
+        <v>20492</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1356</v>
+        <v>646</v>
       </c>
       <c r="C73" t="n">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="D73" t="n">
-        <v>1030</v>
+        <v>271</v>
       </c>
       <c r="E73" t="n">
-        <v>44618</v>
+        <v>20763</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1341</v>
+        <v>1113</v>
       </c>
       <c r="C74" t="n">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="D74" t="n">
-        <v>698</v>
+        <v>530</v>
       </c>
       <c r="E74" t="n">
-        <v>45316</v>
+        <v>21293</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1500</v>
+        <v>919</v>
       </c>
       <c r="C75" t="n">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="D75" t="n">
-        <v>1071</v>
+        <v>411</v>
       </c>
       <c r="E75" t="n">
-        <v>46387</v>
+        <v>21704</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3153</v>
+        <v>954</v>
       </c>
       <c r="C76" t="n">
-        <v>803</v>
+        <v>280</v>
       </c>
       <c r="D76" t="n">
-        <v>2350</v>
+        <v>674</v>
       </c>
       <c r="E76" t="n">
-        <v>48737</v>
+        <v>22378</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1747</v>
+        <v>1541</v>
       </c>
       <c r="C77" t="n">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="D77" t="n">
-        <v>1332</v>
+        <v>1148</v>
       </c>
       <c r="E77" t="n">
-        <v>50069</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C78" t="n">
+        <v>423</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2666</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26192</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>202304</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1413</v>
+      </c>
+      <c r="C79" t="n">
+        <v>611</v>
+      </c>
+      <c r="D79" t="n">
+        <v>802</v>
+      </c>
+      <c r="E79" t="n">
+        <v>26994</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3792</v>
+      </c>
+      <c r="C80" t="n">
+        <v>767</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E80" t="n">
+        <v>30019</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2699</v>
+      </c>
+      <c r="C81" t="n">
+        <v>521</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2178</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32197</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>957</v>
+      </c>
+      <c r="C82" t="n">
+        <v>457</v>
+      </c>
+      <c r="D82" t="n">
+        <v>500</v>
+      </c>
+      <c r="E82" t="n">
+        <v>32697</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C83" t="n">
+        <v>283</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E83" t="n">
+        <v>33805</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C84" t="n">
+        <v>505</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1317</v>
+      </c>
+      <c r="E84" t="n">
+        <v>35122</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C85" t="n">
+        <v>530</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E85" t="n">
+        <v>36177</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>931</v>
+      </c>
+      <c r="C86" t="n">
+        <v>547</v>
+      </c>
+      <c r="D86" t="n">
+        <v>384</v>
+      </c>
+      <c r="E86" t="n">
+        <v>36561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>674</v>
+      </c>
+      <c r="C87" t="n">
+        <v>515</v>
+      </c>
+      <c r="D87" t="n">
+        <v>159</v>
+      </c>
+      <c r="E87" t="n">
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>202401</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>775</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-295</v>
+      </c>
+      <c r="E88" t="n">
+        <v>36425</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>202402</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>640</v>
+      </c>
+      <c r="C89" t="n">
+        <v>425</v>
+      </c>
+      <c r="D89" t="n">
+        <v>215</v>
+      </c>
+      <c r="E89" t="n">
+        <v>36640</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C90" t="n">
+        <v>445</v>
+      </c>
+      <c r="D90" t="n">
+        <v>576</v>
+      </c>
+      <c r="E90" t="n">
+        <v>37216</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C91" t="n">
+        <v>492</v>
+      </c>
+      <c r="D91" t="n">
+        <v>621</v>
+      </c>
+      <c r="E91" t="n">
+        <v>37837</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>70291</v>
-      </c>
-      <c r="C78" t="n">
-        <v>20334</v>
-      </c>
-      <c r="D78" t="n">
-        <v>49957</v>
-      </c>
-      <c r="E78" t="n">
-        <v>100026</v>
+      <c r="B92" t="n">
+        <v>58537</v>
+      </c>
+      <c r="C92" t="n">
+        <v>20798</v>
+      </c>
+      <c r="D92" t="n">
+        <v>37739</v>
+      </c>
+      <c r="E92" t="n">
+        <v>75576</v>
       </c>
     </row>
   </sheetData>

--- a/month_sum(in).xlsx
+++ b/month_sum(in).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>장착대수</t>
+          <t>신규장착대수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -463,1730 +463,1502 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>201611</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>1318</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>1318</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>201612</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>1033</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>1033</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201701</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>703</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>201702</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>811</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>811</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201703</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>392</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>392</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201704</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>884</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>884</v>
       </c>
       <c r="E7" t="n">
-        <v>118</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="E8" t="n">
-        <v>196</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>544</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>544</v>
       </c>
       <c r="E9" t="n">
-        <v>214</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="E10" t="n">
-        <v>326</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>478</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>851</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>938</v>
+        <v>854</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>938</v>
+        <v>854</v>
       </c>
       <c r="E13" t="n">
-        <v>1789</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>2086</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="E15" t="n">
-        <v>2318</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>2490</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>2680</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>3013</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>3369</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>529</v>
+        <v>313</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>527</v>
+        <v>311</v>
       </c>
       <c r="E20" t="n">
-        <v>3896</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E21" t="n">
-        <v>4097</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731</v>
+        <v>253</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>731</v>
+        <v>253</v>
       </c>
       <c r="E22" t="n">
-        <v>4828</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="C23" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="E23" t="n">
-        <v>5057</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="E24" t="n">
-        <v>5406</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E25" t="n">
-        <v>5618</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C26" t="n">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="D26" t="n">
-        <v>-150</v>
+        <v>180</v>
       </c>
       <c r="E26" t="n">
-        <v>5468</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="C27" t="n">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="E27" t="n">
-        <v>5811</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="D28" t="n">
-        <v>257</v>
+        <v>-104</v>
       </c>
       <c r="E28" t="n">
-        <v>6068</v>
+        <v>9717</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="D29" t="n">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
-        <v>6216</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="C30" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="E30" t="n">
-        <v>6271</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="n">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="E31" t="n">
-        <v>6591</v>
+        <v>10228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D32" t="n">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="E32" t="n">
-        <v>6812</v>
+        <v>10254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D33" t="n">
-        <v>293</v>
+        <v>-108</v>
       </c>
       <c r="E33" t="n">
-        <v>7105</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="D34" t="n">
-        <v>264</v>
+        <v>-135</v>
       </c>
       <c r="E34" t="n">
-        <v>7369</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D35" t="n">
-        <v>87</v>
+        <v>-195</v>
       </c>
       <c r="E35" t="n">
-        <v>7456</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>203</v>
+        <v>569</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>-542</v>
       </c>
       <c r="E36" t="n">
-        <v>7486</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1171</v>
+        <v>63</v>
       </c>
       <c r="C37" t="n">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="D37" t="n">
-        <v>960</v>
+        <v>-219</v>
       </c>
       <c r="E37" t="n">
-        <v>8446</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1939</v>
+        <v>94</v>
       </c>
       <c r="C38" t="n">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="D38" t="n">
-        <v>1529</v>
+        <v>-165</v>
       </c>
       <c r="E38" t="n">
-        <v>9975</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="C39" t="n">
-        <v>91</v>
+        <v>1063</v>
       </c>
       <c r="D39" t="n">
-        <v>161</v>
+        <v>-1002</v>
       </c>
       <c r="E39" t="n">
-        <v>10136</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>154</v>
+        <v>3811</v>
       </c>
       <c r="D40" t="n">
-        <v>224</v>
+        <v>-3730</v>
       </c>
       <c r="E40" t="n">
-        <v>10360</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="D41" t="n">
-        <v>157</v>
+        <v>-191</v>
       </c>
       <c r="E41" t="n">
-        <v>10517</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="C42" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="E42" t="n">
-        <v>10774</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>539</v>
+        <v>169</v>
       </c>
       <c r="C43" t="n">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="E43" t="n">
-        <v>10978</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>540</v>
+        <v>231</v>
       </c>
       <c r="C44" t="n">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="D44" t="n">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E44" t="n">
-        <v>11147</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619</v>
+        <v>360</v>
       </c>
       <c r="C45" t="n">
-        <v>637</v>
+        <v>124</v>
       </c>
       <c r="D45" t="n">
-        <v>-18</v>
+        <v>236</v>
       </c>
       <c r="E45" t="n">
-        <v>11129</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="C46" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="D46" t="n">
-        <v>-48</v>
+        <v>142</v>
       </c>
       <c r="E46" t="n">
-        <v>11081</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>161</v>
+        <v>1241</v>
       </c>
       <c r="C47" t="n">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="E47" t="n">
-        <v>11081</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>208</v>
+        <v>587</v>
       </c>
       <c r="C48" t="n">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
-        <v>71</v>
+        <v>528</v>
       </c>
       <c r="E48" t="n">
-        <v>11152</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="C49" t="n">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="E49" t="n">
-        <v>11216</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>396</v>
+        <v>752</v>
       </c>
       <c r="C50" t="n">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="D50" t="n">
-        <v>236</v>
+        <v>698</v>
       </c>
       <c r="E50" t="n">
-        <v>11452</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>318</v>
+        <v>1763</v>
       </c>
       <c r="C51" t="n">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="D51" t="n">
-        <v>59</v>
+        <v>1614</v>
       </c>
       <c r="E51" t="n">
-        <v>11511</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>361</v>
+        <v>1387</v>
       </c>
       <c r="C52" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D52" t="n">
-        <v>238</v>
+        <v>1247</v>
       </c>
       <c r="E52" t="n">
-        <v>11749</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="D53" t="n">
-        <v>352</v>
+        <v>697</v>
       </c>
       <c r="E53" t="n">
-        <v>12101</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>444</v>
+        <v>1289</v>
       </c>
       <c r="C54" t="n">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="D54" t="n">
-        <v>260</v>
+        <v>1044</v>
       </c>
       <c r="E54" t="n">
-        <v>12361</v>
+        <v>11919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>674</v>
+        <v>1049</v>
       </c>
       <c r="C55" t="n">
-        <v>248</v>
+        <v>1224</v>
       </c>
       <c r="D55" t="n">
-        <v>426</v>
+        <v>-175</v>
       </c>
       <c r="E55" t="n">
-        <v>12787</v>
+        <v>11744</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>334</v>
+        <v>2116</v>
       </c>
       <c r="C56" t="n">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D56" t="n">
-        <v>156</v>
+        <v>1985</v>
       </c>
       <c r="E56" t="n">
-        <v>12943</v>
+        <v>13729</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2519</v>
+        <v>2077</v>
       </c>
       <c r="C57" t="n">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="D57" t="n">
-        <v>2212</v>
+        <v>1825</v>
       </c>
       <c r="E57" t="n">
-        <v>15155</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>625</v>
+        <v>2632</v>
       </c>
       <c r="C58" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D58" t="n">
-        <v>406</v>
+        <v>2403</v>
       </c>
       <c r="E58" t="n">
-        <v>15561</v>
+        <v>17957</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>360</v>
+        <v>2737</v>
       </c>
       <c r="C59" t="n">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="D59" t="n">
-        <v>130</v>
+        <v>2424</v>
       </c>
       <c r="E59" t="n">
-        <v>15691</v>
+        <v>20381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>479</v>
+        <v>2040</v>
       </c>
       <c r="C60" t="n">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="D60" t="n">
-        <v>354</v>
+        <v>1687</v>
       </c>
       <c r="E60" t="n">
-        <v>16045</v>
+        <v>22068</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>864</v>
+        <v>2539</v>
       </c>
       <c r="C61" t="n">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D61" t="n">
-        <v>641</v>
+        <v>2385</v>
       </c>
       <c r="E61" t="n">
-        <v>16686</v>
+        <v>24453</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>541</v>
+        <v>3194</v>
       </c>
       <c r="C62" t="n">
-        <v>279</v>
+        <v>775</v>
       </c>
       <c r="D62" t="n">
-        <v>262</v>
+        <v>2419</v>
       </c>
       <c r="E62" t="n">
-        <v>16948</v>
+        <v>26872</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>613</v>
+        <v>2573</v>
       </c>
       <c r="C63" t="n">
-        <v>498</v>
+        <v>608</v>
       </c>
       <c r="D63" t="n">
-        <v>115</v>
+        <v>1965</v>
       </c>
       <c r="E63" t="n">
-        <v>17063</v>
+        <v>28837</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>840</v>
+        <v>1812</v>
       </c>
       <c r="C64" t="n">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="D64" t="n">
-        <v>439</v>
+        <v>1543</v>
       </c>
       <c r="E64" t="n">
-        <v>17502</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>593</v>
+        <v>1952</v>
       </c>
       <c r="C65" t="n">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="D65" t="n">
-        <v>179</v>
+        <v>1744</v>
       </c>
       <c r="E65" t="n">
-        <v>17681</v>
+        <v>32124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1072</v>
+        <v>2070</v>
       </c>
       <c r="C66" t="n">
-        <v>262</v>
+        <v>1222</v>
       </c>
       <c r="D66" t="n">
-        <v>810</v>
+        <v>848</v>
       </c>
       <c r="E66" t="n">
-        <v>18491</v>
+        <v>32972</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>698</v>
+        <v>2455</v>
       </c>
       <c r="C67" t="n">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="D67" t="n">
-        <v>371</v>
+        <v>2190</v>
       </c>
       <c r="E67" t="n">
-        <v>18862</v>
+        <v>35162</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>656</v>
+        <v>2191</v>
       </c>
       <c r="C68" t="n">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="D68" t="n">
-        <v>316</v>
+        <v>1908</v>
       </c>
       <c r="E68" t="n">
-        <v>19178</v>
+        <v>37070</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>414</v>
+        <v>3343</v>
       </c>
       <c r="C69" t="n">
-        <v>340</v>
+        <v>621</v>
       </c>
       <c r="D69" t="n">
-        <v>74</v>
+        <v>2722</v>
       </c>
       <c r="E69" t="n">
-        <v>19252</v>
+        <v>39792</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>671</v>
+        <v>2545</v>
       </c>
       <c r="C70" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D70" t="n">
-        <v>363</v>
+        <v>2234</v>
       </c>
       <c r="E70" t="n">
-        <v>19615</v>
+        <v>42026</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>937</v>
+        <v>2049</v>
       </c>
       <c r="C71" t="n">
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="D71" t="n">
-        <v>591</v>
+        <v>1542</v>
       </c>
       <c r="E71" t="n">
-        <v>20206</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>620</v>
+        <v>1542</v>
       </c>
       <c r="C72" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="D72" t="n">
-        <v>286</v>
+        <v>1292</v>
       </c>
       <c r="E72" t="n">
-        <v>20492</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>646</v>
+        <v>1391</v>
       </c>
       <c r="C73" t="n">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="D73" t="n">
-        <v>271</v>
+        <v>1065</v>
       </c>
       <c r="E73" t="n">
-        <v>20763</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1113</v>
+        <v>1369</v>
       </c>
       <c r="C74" t="n">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="D74" t="n">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="E74" t="n">
-        <v>21293</v>
+        <v>46664</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>919</v>
+        <v>1511</v>
       </c>
       <c r="C75" t="n">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="D75" t="n">
-        <v>411</v>
+        <v>1084</v>
       </c>
       <c r="E75" t="n">
-        <v>21704</v>
+        <v>47748</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>954</v>
+        <v>4490</v>
       </c>
       <c r="C76" t="n">
-        <v>280</v>
+        <v>859</v>
       </c>
       <c r="D76" t="n">
-        <v>674</v>
+        <v>3631</v>
       </c>
       <c r="E76" t="n">
-        <v>22378</v>
+        <v>51379</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1541</v>
+        <v>2266</v>
       </c>
       <c r="C77" t="n">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="D77" t="n">
-        <v>1148</v>
+        <v>1742</v>
       </c>
       <c r="E77" t="n">
-        <v>23526</v>
+        <v>53121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3089</v>
+        <v>2500</v>
       </c>
       <c r="C78" t="n">
-        <v>423</v>
+        <v>1257</v>
       </c>
       <c r="D78" t="n">
-        <v>2666</v>
+        <v>1243</v>
       </c>
       <c r="E78" t="n">
-        <v>26192</v>
+        <v>54364</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1413</v>
+        <v>2886</v>
       </c>
       <c r="C79" t="n">
-        <v>611</v>
+        <v>3027</v>
       </c>
       <c r="D79" t="n">
-        <v>802</v>
+        <v>-141</v>
       </c>
       <c r="E79" t="n">
-        <v>26994</v>
+        <v>54223</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>All</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3792</v>
+        <v>78999</v>
       </c>
       <c r="C80" t="n">
-        <v>767</v>
+        <v>24934</v>
       </c>
       <c r="D80" t="n">
-        <v>3025</v>
+        <v>54065</v>
       </c>
       <c r="E80" t="n">
-        <v>30019</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2699</v>
-      </c>
-      <c r="C81" t="n">
-        <v>521</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2178</v>
-      </c>
-      <c r="E81" t="n">
-        <v>32197</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>202307</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>957</v>
-      </c>
-      <c r="C82" t="n">
-        <v>457</v>
-      </c>
-      <c r="D82" t="n">
-        <v>500</v>
-      </c>
-      <c r="E82" t="n">
-        <v>32697</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>202308</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1391</v>
-      </c>
-      <c r="C83" t="n">
-        <v>283</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1108</v>
-      </c>
-      <c r="E83" t="n">
-        <v>33805</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1822</v>
-      </c>
-      <c r="C84" t="n">
-        <v>505</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1317</v>
-      </c>
-      <c r="E84" t="n">
-        <v>35122</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>202310</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1585</v>
-      </c>
-      <c r="C85" t="n">
-        <v>530</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1055</v>
-      </c>
-      <c r="E85" t="n">
-        <v>36177</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>202311</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>931</v>
-      </c>
-      <c r="C86" t="n">
-        <v>547</v>
-      </c>
-      <c r="D86" t="n">
-        <v>384</v>
-      </c>
-      <c r="E86" t="n">
-        <v>36561</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>674</v>
-      </c>
-      <c r="C87" t="n">
-        <v>515</v>
-      </c>
-      <c r="D87" t="n">
-        <v>159</v>
-      </c>
-      <c r="E87" t="n">
-        <v>36720</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>202401</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>775</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1070</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-295</v>
-      </c>
-      <c r="E88" t="n">
-        <v>36425</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>202402</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>640</v>
-      </c>
-      <c r="C89" t="n">
-        <v>425</v>
-      </c>
-      <c r="D89" t="n">
-        <v>215</v>
-      </c>
-      <c r="E89" t="n">
-        <v>36640</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C90" t="n">
-        <v>445</v>
-      </c>
-      <c r="D90" t="n">
-        <v>576</v>
-      </c>
-      <c r="E90" t="n">
-        <v>37216</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>202404</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1113</v>
-      </c>
-      <c r="C91" t="n">
-        <v>492</v>
-      </c>
-      <c r="D91" t="n">
-        <v>621</v>
-      </c>
-      <c r="E91" t="n">
-        <v>37837</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>58537</v>
-      </c>
-      <c r="C92" t="n">
-        <v>20798</v>
-      </c>
-      <c r="D92" t="n">
-        <v>37739</v>
-      </c>
-      <c r="E92" t="n">
-        <v>75576</v>
+        <v>108288</v>
       </c>
     </row>
   </sheetData>

--- a/month_sum(in).xlsx
+++ b/month_sum(in).xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4월자료" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5월자료" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,1502 +463,1768 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1318</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201612</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1033</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1033</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2351</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201701</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>703</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>3054</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201702</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>811</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>3865</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201703</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>4257</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201704</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>884</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>5141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>649</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>649</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>5790</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>544</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>544</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>6334</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
-        <v>6579</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E11" t="n">
-        <v>6643</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="E12" t="n">
-        <v>6644</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854</v>
+        <v>938</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>854</v>
+        <v>938</v>
       </c>
       <c r="E13" t="n">
-        <v>7498</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="E14" t="n">
-        <v>7511</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>379</v>
+        <v>232</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="E15" t="n">
-        <v>7887</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="E16" t="n">
-        <v>7898</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="E17" t="n">
-        <v>7948</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="E18" t="n">
-        <v>7955</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="E19" t="n">
-        <v>7979</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>311</v>
+        <v>527</v>
       </c>
       <c r="E20" t="n">
-        <v>8290</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E21" t="n">
-        <v>8497</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253</v>
+        <v>731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>253</v>
+        <v>731</v>
       </c>
       <c r="E22" t="n">
-        <v>8750</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D23" t="n">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E23" t="n">
-        <v>9026</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="E24" t="n">
-        <v>9287</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E25" t="n">
-        <v>9485</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C26" t="n">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="D26" t="n">
-        <v>180</v>
+        <v>-150</v>
       </c>
       <c r="E26" t="n">
-        <v>9665</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="C27" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="E27" t="n">
-        <v>9821</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="C28" t="n">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>-104</v>
+        <v>257</v>
       </c>
       <c r="E28" t="n">
-        <v>9717</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C29" t="n">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E29" t="n">
-        <v>9782</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="C30" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>10040</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="C31" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" t="n">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="E31" t="n">
-        <v>10228</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="E32" t="n">
-        <v>10254</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="C33" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D33" t="n">
-        <v>-108</v>
+        <v>293</v>
       </c>
       <c r="E33" t="n">
-        <v>10146</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="C34" t="n">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>-135</v>
+        <v>264</v>
       </c>
       <c r="E34" t="n">
-        <v>10011</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="C35" t="n">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>-195</v>
+        <v>87</v>
       </c>
       <c r="E35" t="n">
-        <v>9816</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="C36" t="n">
-        <v>569</v>
+        <v>203</v>
       </c>
       <c r="D36" t="n">
-        <v>-542</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>9274</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63</v>
+        <v>1171</v>
       </c>
       <c r="C37" t="n">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="D37" t="n">
-        <v>-219</v>
+        <v>960</v>
       </c>
       <c r="E37" t="n">
-        <v>9055</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94</v>
+        <v>1939</v>
       </c>
       <c r="C38" t="n">
-        <v>259</v>
+        <v>410</v>
       </c>
       <c r="D38" t="n">
-        <v>-165</v>
+        <v>1529</v>
       </c>
       <c r="E38" t="n">
-        <v>8890</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="C39" t="n">
-        <v>1063</v>
+        <v>130</v>
       </c>
       <c r="D39" t="n">
-        <v>-1002</v>
+        <v>122</v>
       </c>
       <c r="E39" t="n">
-        <v>7888</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="C40" t="n">
-        <v>3811</v>
+        <v>172</v>
       </c>
       <c r="D40" t="n">
-        <v>-3730</v>
+        <v>206</v>
       </c>
       <c r="E40" t="n">
-        <v>4158</v>
+        <v>10303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C41" t="n">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="D41" t="n">
-        <v>-191</v>
+        <v>109</v>
       </c>
       <c r="E41" t="n">
-        <v>3967</v>
+        <v>10412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D42" t="n">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="E42" t="n">
-        <v>4111</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169</v>
+        <v>539</v>
       </c>
       <c r="C43" t="n">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="D43" t="n">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="E43" t="n">
-        <v>4191</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231</v>
+        <v>540</v>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="D44" t="n">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E44" t="n">
-        <v>4334</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>360</v>
+        <v>619</v>
       </c>
       <c r="C45" t="n">
-        <v>124</v>
+        <v>622</v>
       </c>
       <c r="D45" t="n">
-        <v>236</v>
+        <v>-3</v>
       </c>
       <c r="E45" t="n">
-        <v>4570</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C46" t="n">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="D46" t="n">
-        <v>142</v>
+        <v>-50</v>
       </c>
       <c r="E46" t="n">
-        <v>4712</v>
+        <v>11009</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1241</v>
+        <v>161</v>
       </c>
       <c r="C47" t="n">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D47" t="n">
-        <v>1117</v>
+        <v>-7</v>
       </c>
       <c r="E47" t="n">
-        <v>5829</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>587</v>
+        <v>208</v>
       </c>
       <c r="C48" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="D48" t="n">
-        <v>528</v>
+        <v>73</v>
       </c>
       <c r="E48" t="n">
-        <v>6357</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="C49" t="n">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D49" t="n">
-        <v>262</v>
+        <v>56</v>
       </c>
       <c r="E49" t="n">
-        <v>6619</v>
+        <v>11131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>752</v>
+        <v>396</v>
       </c>
       <c r="C50" t="n">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="D50" t="n">
-        <v>698</v>
+        <v>230</v>
       </c>
       <c r="E50" t="n">
-        <v>7317</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1763</v>
+        <v>318</v>
       </c>
       <c r="C51" t="n">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="D51" t="n">
-        <v>1614</v>
+        <v>43</v>
       </c>
       <c r="E51" t="n">
-        <v>8931</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1387</v>
+        <v>362</v>
       </c>
       <c r="C52" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D52" t="n">
-        <v>1247</v>
+        <v>240</v>
       </c>
       <c r="E52" t="n">
-        <v>10178</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="C53" t="n">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="D53" t="n">
-        <v>697</v>
+        <v>345</v>
       </c>
       <c r="E53" t="n">
-        <v>10875</v>
+        <v>11989</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1289</v>
+        <v>444</v>
       </c>
       <c r="C54" t="n">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D54" t="n">
-        <v>1044</v>
+        <v>253</v>
       </c>
       <c r="E54" t="n">
-        <v>11919</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1049</v>
+        <v>674</v>
       </c>
       <c r="C55" t="n">
-        <v>1224</v>
+        <v>246</v>
       </c>
       <c r="D55" t="n">
-        <v>-175</v>
+        <v>428</v>
       </c>
       <c r="E55" t="n">
-        <v>11744</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2116</v>
+        <v>334</v>
       </c>
       <c r="C56" t="n">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D56" t="n">
-        <v>1985</v>
+        <v>153</v>
       </c>
       <c r="E56" t="n">
-        <v>13729</v>
+        <v>12823</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2077</v>
+        <v>2519</v>
       </c>
       <c r="C57" t="n">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="D57" t="n">
-        <v>1825</v>
+        <v>2214</v>
       </c>
       <c r="E57" t="n">
-        <v>15554</v>
+        <v>15037</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2632</v>
+        <v>620</v>
       </c>
       <c r="C58" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D58" t="n">
-        <v>2403</v>
+        <v>403</v>
       </c>
       <c r="E58" t="n">
-        <v>17957</v>
+        <v>15440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2737</v>
+        <v>360</v>
       </c>
       <c r="C59" t="n">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="D59" t="n">
-        <v>2424</v>
+        <v>124</v>
       </c>
       <c r="E59" t="n">
-        <v>20381</v>
+        <v>15564</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2040</v>
+        <v>479</v>
       </c>
       <c r="C60" t="n">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="D60" t="n">
-        <v>1687</v>
+        <v>359</v>
       </c>
       <c r="E60" t="n">
-        <v>22068</v>
+        <v>15923</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>202210</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2539</v>
+        <v>865</v>
       </c>
       <c r="C61" t="n">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="D61" t="n">
-        <v>2385</v>
+        <v>635</v>
       </c>
       <c r="E61" t="n">
-        <v>24453</v>
+        <v>16558</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>202211</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3194</v>
+        <v>541</v>
       </c>
       <c r="C62" t="n">
-        <v>775</v>
+        <v>297</v>
       </c>
       <c r="D62" t="n">
-        <v>2419</v>
+        <v>244</v>
       </c>
       <c r="E62" t="n">
-        <v>26872</v>
+        <v>16802</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>202212</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2573</v>
+        <v>613</v>
       </c>
       <c r="C63" t="n">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="D63" t="n">
-        <v>1965</v>
+        <v>109</v>
       </c>
       <c r="E63" t="n">
-        <v>28837</v>
+        <v>16911</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>202301</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1812</v>
+        <v>840</v>
       </c>
       <c r="C64" t="n">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="D64" t="n">
-        <v>1543</v>
+        <v>443</v>
       </c>
       <c r="E64" t="n">
-        <v>30380</v>
+        <v>17354</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>202302</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1952</v>
+        <v>593</v>
       </c>
       <c r="C65" t="n">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="D65" t="n">
-        <v>1744</v>
+        <v>181</v>
       </c>
       <c r="E65" t="n">
-        <v>32124</v>
+        <v>17535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>202303</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2070</v>
+        <v>1072</v>
       </c>
       <c r="C66" t="n">
-        <v>1222</v>
+        <v>256</v>
       </c>
       <c r="D66" t="n">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="E66" t="n">
-        <v>32972</v>
+        <v>18351</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>202304</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2455</v>
+        <v>698</v>
       </c>
       <c r="C67" t="n">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="D67" t="n">
-        <v>2190</v>
+        <v>357</v>
       </c>
       <c r="E67" t="n">
-        <v>35162</v>
+        <v>18708</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2191</v>
+        <v>656</v>
       </c>
       <c r="C68" t="n">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="D68" t="n">
-        <v>1908</v>
+        <v>313</v>
       </c>
       <c r="E68" t="n">
-        <v>37070</v>
+        <v>19021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3343</v>
+        <v>414</v>
       </c>
       <c r="C69" t="n">
-        <v>621</v>
+        <v>339</v>
       </c>
       <c r="D69" t="n">
-        <v>2722</v>
+        <v>75</v>
       </c>
       <c r="E69" t="n">
-        <v>39792</v>
+        <v>19096</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2545</v>
+        <v>673</v>
       </c>
       <c r="C70" t="n">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D70" t="n">
-        <v>2234</v>
+        <v>372</v>
       </c>
       <c r="E70" t="n">
-        <v>42026</v>
+        <v>19468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>202308</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2049</v>
+        <v>938</v>
       </c>
       <c r="C71" t="n">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D71" t="n">
-        <v>1542</v>
+        <v>522</v>
       </c>
       <c r="E71" t="n">
-        <v>43568</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1542</v>
+        <v>620</v>
       </c>
       <c r="C72" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D72" t="n">
-        <v>1292</v>
+        <v>310</v>
       </c>
       <c r="E72" t="n">
-        <v>44860</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1391</v>
+        <v>644</v>
       </c>
       <c r="C73" t="n">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D73" t="n">
-        <v>1065</v>
+        <v>281</v>
       </c>
       <c r="E73" t="n">
-        <v>45925</v>
+        <v>20581</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1369</v>
+        <v>1113</v>
       </c>
       <c r="C74" t="n">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="D74" t="n">
-        <v>739</v>
+        <v>544</v>
       </c>
       <c r="E74" t="n">
-        <v>46664</v>
+        <v>21125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1511</v>
+        <v>919</v>
       </c>
       <c r="C75" t="n">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="D75" t="n">
-        <v>1084</v>
+        <v>396</v>
       </c>
       <c r="E75" t="n">
-        <v>47748</v>
+        <v>21521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4490</v>
+        <v>954</v>
       </c>
       <c r="C76" t="n">
-        <v>859</v>
+        <v>298</v>
       </c>
       <c r="D76" t="n">
-        <v>3631</v>
+        <v>656</v>
       </c>
       <c r="E76" t="n">
-        <v>51379</v>
+        <v>22177</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2266</v>
+        <v>1540</v>
       </c>
       <c r="C77" t="n">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="D77" t="n">
-        <v>1742</v>
+        <v>1123</v>
       </c>
       <c r="E77" t="n">
-        <v>53121</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2500</v>
+        <v>3086</v>
       </c>
       <c r="C78" t="n">
-        <v>1257</v>
+        <v>456</v>
       </c>
       <c r="D78" t="n">
-        <v>1243</v>
+        <v>2630</v>
       </c>
       <c r="E78" t="n">
-        <v>54364</v>
+        <v>25930</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2886</v>
+        <v>1407</v>
       </c>
       <c r="C79" t="n">
-        <v>3027</v>
+        <v>612</v>
       </c>
       <c r="D79" t="n">
-        <v>-141</v>
+        <v>795</v>
       </c>
       <c r="E79" t="n">
-        <v>54223</v>
+        <v>26725</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6806</v>
+      </c>
+      <c r="C80" t="n">
+        <v>853</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5953</v>
+      </c>
+      <c r="E80" t="n">
+        <v>32678</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2697</v>
+      </c>
+      <c r="C81" t="n">
+        <v>564</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E81" t="n">
+        <v>34811</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>957</v>
+      </c>
+      <c r="C82" t="n">
+        <v>474</v>
+      </c>
+      <c r="D82" t="n">
+        <v>483</v>
+      </c>
+      <c r="E82" t="n">
+        <v>35294</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C83" t="n">
+        <v>329</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1061</v>
+      </c>
+      <c r="E83" t="n">
+        <v>36355</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C84" t="n">
+        <v>513</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E84" t="n">
+        <v>37665</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C85" t="n">
+        <v>559</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E85" t="n">
+        <v>38691</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>931</v>
+      </c>
+      <c r="C86" t="n">
+        <v>493</v>
+      </c>
+      <c r="D86" t="n">
+        <v>438</v>
+      </c>
+      <c r="E86" t="n">
+        <v>39129</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>676</v>
+      </c>
+      <c r="C87" t="n">
+        <v>500</v>
+      </c>
+      <c r="D87" t="n">
+        <v>176</v>
+      </c>
+      <c r="E87" t="n">
+        <v>39305</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>202401</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>774</v>
+      </c>
+      <c r="C88" t="n">
+        <v>745</v>
+      </c>
+      <c r="D88" t="n">
+        <v>29</v>
+      </c>
+      <c r="E88" t="n">
+        <v>39334</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>202402</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>645</v>
+      </c>
+      <c r="C89" t="n">
+        <v>359</v>
+      </c>
+      <c r="D89" t="n">
+        <v>286</v>
+      </c>
+      <c r="E89" t="n">
+        <v>39620</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C90" t="n">
+        <v>411</v>
+      </c>
+      <c r="D90" t="n">
+        <v>611</v>
+      </c>
+      <c r="E90" t="n">
+        <v>40231</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1141</v>
+      </c>
+      <c r="C91" t="n">
+        <v>509</v>
+      </c>
+      <c r="D91" t="n">
+        <v>632</v>
+      </c>
+      <c r="E91" t="n">
+        <v>40863</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>202405</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>704</v>
+      </c>
+      <c r="C92" t="n">
+        <v>565</v>
+      </c>
+      <c r="D92" t="n">
+        <v>139</v>
+      </c>
+      <c r="E92" t="n">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>28</v>
+      </c>
+      <c r="C93" t="n">
+        <v>47</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E93" t="n">
+        <v>40983</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>78999</v>
-      </c>
-      <c r="C80" t="n">
-        <v>24934</v>
-      </c>
-      <c r="D80" t="n">
-        <v>54065</v>
-      </c>
-      <c r="E80" t="n">
-        <v>108288</v>
+      <c r="B94" t="n">
+        <v>62305</v>
+      </c>
+      <c r="C94" t="n">
+        <v>21322</v>
+      </c>
+      <c r="D94" t="n">
+        <v>40983</v>
+      </c>
+      <c r="E94" t="n">
+        <v>81966</v>
       </c>
     </row>
   </sheetData>
